--- a/DATA/IsoData/LENOIsoData.xlsx
+++ b/DATA/IsoData/LENOIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">a0de86fe-f17a-4726-8489-3f1ab38648da</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7498726f-34e0-4af9-90dc-4baaa38df06a</t>
   </si>
   <si>
     <t xml:space="preserve">LENO.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164635Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07ae9d72-fb1a-4c7a-8164-c206a8c10b43</t>
+    <t xml:space="preserve">20210112T162004Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428357ed-1f8f-40b5-9cde-07eed4d2cdd2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20190523.1030</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000082446</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171501Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c6d4acb2-9c89-4d17-aa1c-366d18224ef9</t>
+    <t xml:space="preserve">20210112T162122Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a70011d6-d788-4e45-b0a1-2c3ab7e68741</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20190703.0931</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000083265</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171315Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24377a2c-70d8-4701-80d2-e283101a2c66</t>
+    <t xml:space="preserve">20210112T160308Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9862618-e788-4848-abf6-30b98cd4e1a8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20190731.1200</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000083534</t>
   </si>
   <si>
-    <t xml:space="preserve">b338382d-5709-4744-b3a6-acbdbfcf12e0</t>
+    <t xml:space="preserve">8797cc91-3d8d-42b7-a50d-ac95fb750ea4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20190828.1000</t>
@@ -143,10 +149,10 @@
     <t xml:space="preserve">A00000084034</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164721Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c933a34-8c93-4128-a0d9-8ea35c78d473</t>
+    <t xml:space="preserve">20210112T164705Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4171c3b3-e559-4faf-a10d-46a0d0ecc4df</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20190926.0715</t>
@@ -158,10 +164,10 @@
     <t xml:space="preserve">A00000114332</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165007Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d186fd23-42f3-4807-b69c-6f5c5a04cbd8</t>
+    <t xml:space="preserve">20210112T164449Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a5474712-8dca-4e99-b520-dfd3efa44d3c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20191022.1045</t>
@@ -173,10 +179,10 @@
     <t xml:space="preserve">A00000144741</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165132Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d614460c-be8c-4022-b06d-3d3dda8d4cb6</t>
+    <t xml:space="preserve">20210112T162325Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa57e39a-fe7c-4c39-b2e3-2a50fd6395bd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20191119.1020</t>
@@ -188,10 +194,10 @@
     <t xml:space="preserve">A00000145520</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165328Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4903af4f-0527-469e-b01c-54736cdd96f7</t>
+    <t xml:space="preserve">20210112T161440Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5485655-0e20-4751-8122-38c49a3bddd7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20191218.1100</t>
@@ -203,10 +209,10 @@
     <t xml:space="preserve">A00000145699</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T165448Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a32684d2-ca8a-4cdd-b58c-e6add741a5b6</t>
+    <t xml:space="preserve">20210112T164628Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b9c0f074-75b5-4fff-9b12-dec27a13b059</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.LENO.20200116.1058</t>
@@ -218,7 +224,22 @@
     <t xml:space="preserve">A00000145926</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170654Z</t>
+    <t xml:space="preserve">20210112T162050Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44c8596e-ee96-444a-bfb8-2438528a3da4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.LENO.20200130.1045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.LENO.20200130.1045.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000145958</t>
   </si>
 </sst>
 </file>
@@ -556,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -610,23 +631,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43563.7715277778</v>
@@ -647,38 +671,41 @@
         <v>0.07</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>43563.7715277778</v>
+        <v>43578.7083333333</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>43608.6458333333</v>
@@ -696,35 +723,38 @@
         <v>0.117</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43608.6458333333</v>
@@ -745,35 +775,38 @@
         <v>0.084</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43665.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43649.6041666667</v>
@@ -794,35 +827,38 @@
         <v>0.328</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43677.7083333333</v>
@@ -843,35 +879,38 @@
         <v>0.18</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43752.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43705.625</v>
@@ -892,35 +931,38 @@
         <v>0.133</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43735.5104166667</v>
@@ -941,35 +983,38 @@
         <v>0.322</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43817.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43760.65625</v>
@@ -990,35 +1035,38 @@
         <v>0.163</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43788.6805555556</v>
@@ -1039,35 +1087,38 @@
         <v>0.221</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43817.7083333333</v>
@@ -1088,17 +1139,72 @@
         <v>0.107</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43886.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="R11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>43846.7069444444</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>43860.6979166667</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-5.061</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-27.18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
